--- a/sequences/30_cues.xlsx
+++ b/sequences/30_cues.xlsx
@@ -28,196 +28,196 @@
     <t>category</t>
   </si>
   <si>
-    <t>face/face101.png</t>
+    <t>face/face100.png</t>
+  </si>
+  <si>
+    <t>face/face120.png</t>
+  </si>
+  <si>
+    <t>face/face079.png</t>
+  </si>
+  <si>
+    <t>car/car074.png</t>
+  </si>
+  <si>
+    <t>car/car099.png</t>
+  </si>
+  <si>
+    <t>car/car122.png</t>
+  </si>
+  <si>
+    <t>car/car107.png</t>
+  </si>
+  <si>
+    <t>car/car081.png</t>
+  </si>
+  <si>
+    <t>face/face072.png</t>
+  </si>
+  <si>
+    <t>car/car101.png</t>
+  </si>
+  <si>
+    <t>car/car120.png</t>
+  </si>
+  <si>
+    <t>car/car083.png</t>
+  </si>
+  <si>
+    <t>face/face104.png</t>
+  </si>
+  <si>
+    <t>car/car069.png</t>
+  </si>
+  <si>
+    <t>face/face105.png</t>
+  </si>
+  <si>
+    <t>car/car075.png</t>
+  </si>
+  <si>
+    <t>face/face091.png</t>
+  </si>
+  <si>
+    <t>car/car064.png</t>
+  </si>
+  <si>
+    <t>face/face123.png</t>
+  </si>
+  <si>
+    <t>face/face109.png</t>
+  </si>
+  <si>
+    <t>car/car078.png</t>
+  </si>
+  <si>
+    <t>car/car072.png</t>
+  </si>
+  <si>
+    <t>face/face064.png</t>
+  </si>
+  <si>
+    <t>face/face098.png</t>
+  </si>
+  <si>
+    <t>face/face107.png</t>
+  </si>
+  <si>
+    <t>car/car116.png</t>
+  </si>
+  <si>
+    <t>face/face096.png</t>
+  </si>
+  <si>
+    <t>face/face083.png</t>
+  </si>
+  <si>
+    <t>car/car110.png</t>
+  </si>
+  <si>
+    <t>face/face102.png</t>
+  </si>
+  <si>
+    <t>face/face090.png</t>
   </si>
   <si>
     <t>car/car065.png</t>
   </si>
   <si>
-    <t>car/car077.png</t>
-  </si>
-  <si>
-    <t>car/car094.png</t>
-  </si>
-  <si>
-    <t>car/car102.png</t>
-  </si>
-  <si>
-    <t>face/face104.png</t>
-  </si>
-  <si>
-    <t>car/car099.png</t>
-  </si>
-  <si>
-    <t>face/face108.png</t>
-  </si>
-  <si>
-    <t>face/face064.png</t>
-  </si>
-  <si>
-    <t>face/face111.png</t>
-  </si>
-  <si>
-    <t>car/car110.png</t>
-  </si>
-  <si>
-    <t>face/face092.png</t>
-  </si>
-  <si>
-    <t>face/face067.png</t>
-  </si>
-  <si>
-    <t>car/car092.png</t>
-  </si>
-  <si>
-    <t>face/face098.png</t>
-  </si>
-  <si>
-    <t>face/face079.png</t>
-  </si>
-  <si>
-    <t>car/car098.png</t>
-  </si>
-  <si>
-    <t>face/face102.png</t>
-  </si>
-  <si>
-    <t>face/face086.png</t>
-  </si>
-  <si>
-    <t>car/car071.png</t>
-  </si>
-  <si>
-    <t>car/car075.png</t>
-  </si>
-  <si>
-    <t>face/face088.png</t>
-  </si>
-  <si>
-    <t>car/car114.png</t>
-  </si>
-  <si>
-    <t>face/face085.png</t>
-  </si>
-  <si>
-    <t>car/car096.png</t>
-  </si>
-  <si>
-    <t>face/face115.png</t>
-  </si>
-  <si>
-    <t>car/car078.png</t>
-  </si>
-  <si>
-    <t>car/car083.png</t>
-  </si>
-  <si>
-    <t>face/face089.png</t>
-  </si>
-  <si>
-    <t>face/face091.png</t>
-  </si>
-  <si>
-    <t>car/car100.png</t>
-  </si>
-  <si>
-    <t>car/car073.png</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>nähen</t>
-  </si>
-  <si>
-    <t>drucken</t>
-  </si>
-  <si>
-    <t>pflanzen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>lösen</t>
-  </si>
-  <si>
-    <t>plaudern</t>
-  </si>
-  <si>
-    <t>irren</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>äußern</t>
-  </si>
-  <si>
-    <t>testen</t>
-  </si>
-  <si>
     <t>nehmen</t>
   </si>
   <si>
-    <t>sorgen</t>
-  </si>
-  <si>
-    <t>achten</t>
+    <t>fliehen</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>raten</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>opfern</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>schätzen</t>
+  </si>
+  <si>
+    <t>wiegen</t>
   </si>
   <si>
     <t>dauern</t>
   </si>
   <si>
-    <t>wetten</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>malen</t>
-  </si>
-  <si>
-    <t>widmen</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>sagen</t>
-  </si>
-  <si>
-    <t>siegen</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>garen</t>
-  </si>
-  <si>
-    <t>trösten</t>
-  </si>
-  <si>
-    <t>klagen</t>
-  </si>
-  <si>
-    <t>schicken</t>
+    <t>tagen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>starten</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>währen</t>
+  </si>
+  <si>
+    <t>hupen</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>mieten</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>stechen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>sieben</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>schenken</t>
   </si>
   <si>
     <t>face</t>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -632,7 +632,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -640,7 +640,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -649,7 +649,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -657,7 +657,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -674,7 +674,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -691,7 +691,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -700,7 +700,7 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -708,7 +708,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -725,7 +725,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -734,7 +734,7 @@
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -742,7 +742,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -759,7 +759,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -768,7 +768,7 @@
         <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -776,7 +776,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -802,7 +802,7 @@
         <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -810,7 +810,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -827,7 +827,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -844,7 +844,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -861,7 +861,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -870,7 +870,7 @@
         <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -878,7 +878,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -887,7 +887,7 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -895,7 +895,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -904,7 +904,7 @@
         <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -912,7 +912,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -929,7 +929,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -938,7 +938,7 @@
         <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -946,7 +946,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -963,7 +963,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -972,7 +972,7 @@
         <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -980,7 +980,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -989,7 +989,7 @@
         <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -997,7 +997,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -1014,7 +1014,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -1023,7 +1023,7 @@
         <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1031,7 +1031,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -1040,7 +1040,7 @@
         <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1048,7 +1048,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
@@ -1057,7 +1057,7 @@
         <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1065,7 +1065,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -1074,7 +1074,7 @@
         <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1082,7 +1082,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -1091,7 +1091,7 @@
         <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1116,7 +1116,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
@@ -1125,7 +1125,7 @@
         <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1133,7 +1133,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>

--- a/sequences/30_cues.xlsx
+++ b/sequences/30_cues.xlsx
@@ -28,202 +28,202 @@
     <t>category</t>
   </si>
   <si>
-    <t>face/face100.png</t>
-  </si>
-  <si>
-    <t>face/face120.png</t>
-  </si>
-  <si>
-    <t>face/face079.png</t>
-  </si>
-  <si>
-    <t>car/car074.png</t>
-  </si>
-  <si>
-    <t>car/car099.png</t>
-  </si>
-  <si>
-    <t>car/car122.png</t>
-  </si>
-  <si>
-    <t>car/car107.png</t>
-  </si>
-  <si>
-    <t>car/car081.png</t>
-  </si>
-  <si>
-    <t>face/face072.png</t>
-  </si>
-  <si>
-    <t>car/car101.png</t>
-  </si>
-  <si>
-    <t>car/car120.png</t>
-  </si>
-  <si>
-    <t>car/car083.png</t>
-  </si>
-  <si>
-    <t>face/face104.png</t>
-  </si>
-  <si>
-    <t>car/car069.png</t>
-  </si>
-  <si>
-    <t>face/face105.png</t>
-  </si>
-  <si>
-    <t>car/car075.png</t>
-  </si>
-  <si>
-    <t>face/face091.png</t>
-  </si>
-  <si>
-    <t>car/car064.png</t>
-  </si>
-  <si>
-    <t>face/face123.png</t>
-  </si>
-  <si>
-    <t>face/face109.png</t>
-  </si>
-  <si>
-    <t>car/car078.png</t>
-  </si>
-  <si>
-    <t>car/car072.png</t>
-  </si>
-  <si>
-    <t>face/face064.png</t>
-  </si>
-  <si>
-    <t>face/face098.png</t>
-  </si>
-  <si>
-    <t>face/face107.png</t>
-  </si>
-  <si>
-    <t>car/car116.png</t>
-  </si>
-  <si>
-    <t>face/face096.png</t>
-  </si>
-  <si>
-    <t>face/face083.png</t>
-  </si>
-  <si>
-    <t>car/car110.png</t>
-  </si>
-  <si>
-    <t>face/face102.png</t>
-  </si>
-  <si>
-    <t>face/face090.png</t>
-  </si>
-  <si>
-    <t>car/car065.png</t>
+    <t>face/face002.jpg</t>
+  </si>
+  <si>
+    <t>house/house008.jpg</t>
+  </si>
+  <si>
+    <t>house/house004.jpg</t>
+  </si>
+  <si>
+    <t>house/house014.jpg</t>
+  </si>
+  <si>
+    <t>face/face012.jpg</t>
+  </si>
+  <si>
+    <t>face/face024.jpg</t>
+  </si>
+  <si>
+    <t>house/house013.jpg</t>
+  </si>
+  <si>
+    <t>house/house022.jpg</t>
+  </si>
+  <si>
+    <t>house/house024.jpg</t>
+  </si>
+  <si>
+    <t>face/face014.jpg</t>
+  </si>
+  <si>
+    <t>house/house025.jpg</t>
+  </si>
+  <si>
+    <t>house/house015.jpg</t>
+  </si>
+  <si>
+    <t>house/house010.jpg</t>
+  </si>
+  <si>
+    <t>face/face028.jpg</t>
+  </si>
+  <si>
+    <t>house/house017.jpg</t>
+  </si>
+  <si>
+    <t>house/house030.jpg</t>
+  </si>
+  <si>
+    <t>house/house026.jpg</t>
+  </si>
+  <si>
+    <t>face/face023.jpg</t>
+  </si>
+  <si>
+    <t>house/house003.jpg</t>
+  </si>
+  <si>
+    <t>face/face003.jpg</t>
+  </si>
+  <si>
+    <t>face/face021.jpg</t>
+  </si>
+  <si>
+    <t>house/house016.jpg</t>
+  </si>
+  <si>
+    <t>face/face029.jpg</t>
+  </si>
+  <si>
+    <t>house/house027.jpg</t>
+  </si>
+  <si>
+    <t>face/face013.jpg</t>
+  </si>
+  <si>
+    <t>face/face019.jpg</t>
+  </si>
+  <si>
+    <t>face/face025.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
+  </si>
+  <si>
+    <t>face/face007.jpg</t>
+  </si>
+  <si>
+    <t>face/face027.jpg</t>
+  </si>
+  <si>
+    <t>house/house002.jpg</t>
+  </si>
+  <si>
+    <t>face/face005.jpg</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>währen</t>
+  </si>
+  <si>
+    <t>fliehen</t>
+  </si>
+  <si>
+    <t>schätzen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>opfern</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>fliegen</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>klappen</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>sondern</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>rasen</t>
   </si>
   <si>
     <t>nehmen</t>
   </si>
   <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>füttern</t>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>sieben</t>
+  </si>
+  <si>
+    <t>haken</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>kaufen</t>
   </si>
   <si>
     <t>raten</t>
   </si>
   <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>schenken</t>
+    <t>spielen</t>
   </si>
   <si>
     <t>face</t>
   </si>
   <si>
-    <t>car</t>
+    <t>house</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -632,7 +632,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -640,7 +640,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -649,7 +649,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -657,7 +657,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -674,7 +674,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -683,7 +683,7 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -691,7 +691,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -700,7 +700,7 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -708,7 +708,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -725,7 +725,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -742,7 +742,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -751,7 +751,7 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -759,7 +759,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -768,7 +768,7 @@
         <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -776,7 +776,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -810,7 +810,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -819,7 +819,7 @@
         <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -827,7 +827,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -836,7 +836,7 @@
         <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -844,7 +844,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -853,7 +853,7 @@
         <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -861,7 +861,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -878,7 +878,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -887,7 +887,7 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -895,7 +895,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -904,7 +904,7 @@
         <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -912,7 +912,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -921,7 +921,7 @@
         <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -929,7 +929,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -946,7 +946,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -955,7 +955,7 @@
         <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -963,7 +963,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -980,7 +980,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -997,7 +997,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -1006,7 +1006,7 @@
         <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1014,7 +1014,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -1031,7 +1031,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -1040,7 +1040,7 @@
         <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1048,7 +1048,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
@@ -1065,7 +1065,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -1082,7 +1082,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -1091,7 +1091,7 @@
         <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1099,7 +1099,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -1116,7 +1116,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
@@ -1125,7 +1125,7 @@
         <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1133,7 +1133,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
@@ -1142,7 +1142,7 @@
         <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/30_cues.xlsx
+++ b/sequences/30_cues.xlsx
@@ -28,202 +28,202 @@
     <t>category</t>
   </si>
   <si>
-    <t>face/face002.jpg</t>
-  </si>
-  <si>
-    <t>house/house008.jpg</t>
+    <t>house/house006.jpg</t>
+  </si>
+  <si>
+    <t>face/face023.jpg</t>
+  </si>
+  <si>
+    <t>face/face022.jpg</t>
+  </si>
+  <si>
+    <t>face/face014.jpg</t>
+  </si>
+  <si>
+    <t>face/face016.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
+  </si>
+  <si>
+    <t>face/face006.jpg</t>
+  </si>
+  <si>
+    <t>face/face010.jpg</t>
+  </si>
+  <si>
+    <t>face/face021.jpg</t>
+  </si>
+  <si>
+    <t>face/face017.jpg</t>
+  </si>
+  <si>
+    <t>house/house025.jpg</t>
+  </si>
+  <si>
+    <t>face/face004.jpg</t>
+  </si>
+  <si>
+    <t>house/house001.jpg</t>
+  </si>
+  <si>
+    <t>house/house009.jpg</t>
+  </si>
+  <si>
+    <t>house/house023.jpg</t>
+  </si>
+  <si>
+    <t>house/house000.jpg</t>
+  </si>
+  <si>
+    <t>face/face027.jpg</t>
+  </si>
+  <si>
+    <t>house/house021.jpg</t>
+  </si>
+  <si>
+    <t>house/house018.jpg</t>
+  </si>
+  <si>
+    <t>house/house019.jpg</t>
+  </si>
+  <si>
+    <t>face/face031.jpg</t>
+  </si>
+  <si>
+    <t>house/house031.jpg</t>
+  </si>
+  <si>
+    <t>face/face003.jpg</t>
+  </si>
+  <si>
+    <t>house/house012.jpg</t>
   </si>
   <si>
     <t>house/house004.jpg</t>
   </si>
   <si>
-    <t>house/house014.jpg</t>
-  </si>
-  <si>
-    <t>face/face012.jpg</t>
-  </si>
-  <si>
-    <t>face/face024.jpg</t>
+    <t>house/house016.jpg</t>
+  </si>
+  <si>
+    <t>face/face001.jpg</t>
   </si>
   <si>
     <t>house/house013.jpg</t>
   </si>
   <si>
-    <t>house/house022.jpg</t>
-  </si>
-  <si>
-    <t>house/house024.jpg</t>
-  </si>
-  <si>
-    <t>face/face014.jpg</t>
-  </si>
-  <si>
-    <t>house/house025.jpg</t>
-  </si>
-  <si>
-    <t>house/house015.jpg</t>
-  </si>
-  <si>
     <t>house/house010.jpg</t>
   </si>
   <si>
-    <t>face/face028.jpg</t>
-  </si>
-  <si>
-    <t>house/house017.jpg</t>
-  </si>
-  <si>
-    <t>house/house030.jpg</t>
-  </si>
-  <si>
-    <t>house/house026.jpg</t>
-  </si>
-  <si>
-    <t>face/face023.jpg</t>
-  </si>
-  <si>
-    <t>house/house003.jpg</t>
-  </si>
-  <si>
-    <t>face/face003.jpg</t>
-  </si>
-  <si>
-    <t>face/face021.jpg</t>
-  </si>
-  <si>
-    <t>house/house016.jpg</t>
+    <t>face/face007.jpg</t>
+  </si>
+  <si>
+    <t>house/house028.jpg</t>
   </si>
   <si>
     <t>face/face029.jpg</t>
   </si>
   <si>
-    <t>house/house027.jpg</t>
-  </si>
-  <si>
-    <t>face/face013.jpg</t>
-  </si>
-  <si>
-    <t>face/face019.jpg</t>
-  </si>
-  <si>
-    <t>face/face025.jpg</t>
-  </si>
-  <si>
-    <t>face/face020.jpg</t>
-  </si>
-  <si>
-    <t>face/face007.jpg</t>
-  </si>
-  <si>
-    <t>face/face027.jpg</t>
-  </si>
-  <si>
-    <t>house/house002.jpg</t>
-  </si>
-  <si>
-    <t>face/face005.jpg</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>schicken</t>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>sondern</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>haken</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>nehmen</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>opfern</t>
+  </si>
+  <si>
+    <t>mieten</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>strahlen</t>
+  </si>
+  <si>
+    <t>tagen</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>krachen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>fesseln</t>
+  </si>
+  <si>
+    <t>hupen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>laufen</t>
   </si>
   <si>
     <t>tauschen</t>
   </si>
   <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>füttern</t>
   </si>
   <si>
     <t>schätzen</t>
   </si>
   <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
     <t>fliegen</t>
   </si>
   <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>schenken</t>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>bitten</t>
   </si>
   <si>
     <t>liefern</t>
   </si>
   <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>spielen</t>
+    <t>house</t>
   </si>
   <si>
     <t>face</t>
-  </si>
-  <si>
-    <t>house</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -640,7 +640,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -657,7 +657,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -674,7 +674,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -683,7 +683,7 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -691,7 +691,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -700,7 +700,7 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -708,7 +708,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -725,7 +725,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -742,7 +742,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -759,7 +759,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -768,7 +768,7 @@
         <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -785,7 +785,7 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -810,7 +810,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -819,7 +819,7 @@
         <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -827,7 +827,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -844,7 +844,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -853,7 +853,7 @@
         <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -861,7 +861,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -870,7 +870,7 @@
         <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -878,7 +878,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -895,7 +895,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -912,7 +912,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -921,7 +921,7 @@
         <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -929,7 +929,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -946,7 +946,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -955,7 +955,7 @@
         <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -963,7 +963,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -972,7 +972,7 @@
         <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -980,7 +980,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -989,7 +989,7 @@
         <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -997,7 +997,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -1006,7 +1006,7 @@
         <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1014,7 +1014,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -1031,7 +1031,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -1048,7 +1048,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
@@ -1057,7 +1057,7 @@
         <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1065,7 +1065,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -1082,7 +1082,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -1099,7 +1099,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -1108,7 +1108,7 @@
         <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1116,7 +1116,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
@@ -1125,7 +1125,7 @@
         <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1133,7 +1133,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
@@ -1142,7 +1142,7 @@
         <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/30_cues.xlsx
+++ b/sequences/30_cues.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
+  <si>
+    <t>word</t>
+  </si>
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -22,202 +25,247 @@
     <t>image</t>
   </si>
   <si>
-    <t>word</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
+    <t>raten</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>lernen</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>schnappen</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>stinken</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>stopfen</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>putzen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>prüfen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>nehmen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>haken</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>rächen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>hexen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>laden</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>fliegen</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>triefen</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>faulen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>house/house014.jpg</t>
+  </si>
+  <si>
+    <t>house/house017.jpg</t>
+  </si>
+  <si>
+    <t>face/face017.jpg</t>
+  </si>
+  <si>
+    <t>house/house011.jpg</t>
+  </si>
+  <si>
+    <t>face/face008.jpg</t>
+  </si>
+  <si>
+    <t>face/face022.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
+  </si>
+  <si>
+    <t>house/house012.jpg</t>
+  </si>
+  <si>
+    <t>house/house031.jpg</t>
+  </si>
+  <si>
+    <t>face/face005.jpg</t>
+  </si>
+  <si>
+    <t>house/house007.jpg</t>
+  </si>
+  <si>
+    <t>face/face023.jpg</t>
+  </si>
+  <si>
+    <t>face/face001.jpg</t>
+  </si>
+  <si>
+    <t>house/house016.jpg</t>
+  </si>
+  <si>
+    <t>house/house026.jpg</t>
+  </si>
+  <si>
+    <t>house/house013.jpg</t>
+  </si>
+  <si>
+    <t>face/face016.jpg</t>
+  </si>
+  <si>
+    <t>house/house021.jpg</t>
+  </si>
+  <si>
     <t>house/house006.jpg</t>
   </si>
   <si>
-    <t>face/face023.jpg</t>
-  </si>
-  <si>
-    <t>face/face022.jpg</t>
-  </si>
-  <si>
-    <t>face/face014.jpg</t>
-  </si>
-  <si>
-    <t>face/face016.jpg</t>
-  </si>
-  <si>
-    <t>face/face020.jpg</t>
-  </si>
-  <si>
-    <t>face/face006.jpg</t>
-  </si>
-  <si>
-    <t>face/face010.jpg</t>
+    <t>face/face027.jpg</t>
+  </si>
+  <si>
+    <t>house/house023.jpg</t>
+  </si>
+  <si>
+    <t>house/house018.jpg</t>
+  </si>
+  <si>
+    <t>face/face018.jpg</t>
+  </si>
+  <si>
+    <t>face/face026.jpg</t>
+  </si>
+  <si>
+    <t>house/house002.jpg</t>
+  </si>
+  <si>
+    <t>face/face002.jpg</t>
+  </si>
+  <si>
+    <t>face/face013.jpg</t>
+  </si>
+  <si>
+    <t>house/house019.jpg</t>
+  </si>
+  <si>
+    <t>house/house027.jpg</t>
+  </si>
+  <si>
+    <t>face/face025.jpg</t>
+  </si>
+  <si>
+    <t>face/face030.jpg</t>
   </si>
   <si>
     <t>face/face021.jpg</t>
-  </si>
-  <si>
-    <t>face/face017.jpg</t>
-  </si>
-  <si>
-    <t>house/house025.jpg</t>
-  </si>
-  <si>
-    <t>face/face004.jpg</t>
-  </si>
-  <si>
-    <t>house/house001.jpg</t>
-  </si>
-  <si>
-    <t>house/house009.jpg</t>
-  </si>
-  <si>
-    <t>house/house023.jpg</t>
-  </si>
-  <si>
-    <t>house/house000.jpg</t>
-  </si>
-  <si>
-    <t>face/face027.jpg</t>
-  </si>
-  <si>
-    <t>house/house021.jpg</t>
-  </si>
-  <si>
-    <t>house/house018.jpg</t>
-  </si>
-  <si>
-    <t>house/house019.jpg</t>
-  </si>
-  <si>
-    <t>face/face031.jpg</t>
-  </si>
-  <si>
-    <t>house/house031.jpg</t>
-  </si>
-  <si>
-    <t>face/face003.jpg</t>
-  </si>
-  <si>
-    <t>house/house012.jpg</t>
-  </si>
-  <si>
-    <t>house/house004.jpg</t>
-  </si>
-  <si>
-    <t>house/house016.jpg</t>
-  </si>
-  <si>
-    <t>face/face001.jpg</t>
-  </si>
-  <si>
-    <t>house/house013.jpg</t>
-  </si>
-  <si>
-    <t>house/house010.jpg</t>
-  </si>
-  <si>
-    <t>face/face007.jpg</t>
-  </si>
-  <si>
-    <t>house/house028.jpg</t>
-  </si>
-  <si>
-    <t>face/face029.jpg</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>liefern</t>
   </si>
   <si>
     <t>house</t>
@@ -581,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -605,544 +653,672 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
+      <c r="C6">
+        <v>74</v>
+      </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
+      <c r="C7">
+        <v>49</v>
+      </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>98</v>
-      </c>
-      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
+      <c r="C9">
+        <v>120</v>
+      </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
+      <c r="C10">
+        <v>53</v>
+      </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
+      <c r="C12">
+        <v>36</v>
+      </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>106</v>
-      </c>
-      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
+      <c r="C13">
+        <v>91</v>
+      </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>110</v>
-      </c>
-      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>121</v>
-      </c>
-      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
+      <c r="C16">
+        <v>45</v>
+      </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>100</v>
-      </c>
-      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
       </c>
+      <c r="C18">
+        <v>43</v>
+      </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
         <v>21</v>
       </c>
+      <c r="C19">
+        <v>75</v>
+      </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>46</v>
-      </c>
-      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
         <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
         <v>23</v>
       </c>
+      <c r="C21">
+        <v>26</v>
+      </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
         <v>24</v>
       </c>
+      <c r="C22">
+        <v>58</v>
+      </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>80</v>
-      </c>
-      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
         <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>92</v>
-      </c>
-      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
         <v>26</v>
       </c>
+      <c r="C24">
+        <v>103</v>
+      </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>91</v>
-      </c>
-      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
         <v>27</v>
       </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>124</v>
-      </c>
-      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
         <v>28</v>
-      </c>
-      <c r="D26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
         <v>29</v>
       </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="C28">
+        <v>40</v>
+      </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
         <v>31</v>
-      </c>
-      <c r="D29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>94</v>
-      </c>
-      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
         <v>32</v>
       </c>
+      <c r="C30">
+        <v>68</v>
+      </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>111</v>
-      </c>
-      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
         <v>33</v>
       </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
         <v>34</v>
-      </c>
-      <c r="D32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>121</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>118</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42">
+        <v>60</v>
+      </c>
+      <c r="D42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43">
+        <v>81</v>
+      </c>
+      <c r="D43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45">
+        <v>78</v>
+      </c>
+      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>29</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>30</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>48</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" t="s">
-        <v>69</v>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/30_cues.xlsx
+++ b/sequences/30_cues.xlsx
@@ -28,244 +28,244 @@
     <t>wenden</t>
   </si>
   <si>
-    <t>rasen</t>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>opfern</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>schalten</t>
+  </si>
+  <si>
+    <t>leiten</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>klagen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>sparen</t>
+  </si>
+  <si>
+    <t>wandern</t>
   </si>
   <si>
     <t>stürmen</t>
   </si>
   <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>opfern</t>
+    <t>hören</t>
   </si>
   <si>
     <t>tropfen</t>
   </si>
   <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>schalten</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>klagen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>nerven</t>
-  </si>
-  <si>
-    <t>sparen</t>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>orten</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>weigern</t>
   </si>
   <si>
     <t>mauern</t>
   </si>
   <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>hören</t>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>ächzen</t>
+  </si>
+  <si>
+    <t>spenden</t>
   </si>
   <si>
     <t>mühen</t>
   </si>
   <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>antun</t>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>heilen</t>
   </si>
   <si>
     <t>fragen</t>
   </si>
   <si>
-    <t>orten</t>
-  </si>
-  <si>
-    <t>stärken</t>
+    <t>dauern</t>
   </si>
   <si>
     <t>fühlen</t>
   </si>
   <si>
-    <t>weigern</t>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>stören</t>
+  </si>
+  <si>
+    <t>stopfen</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>bremsen</t>
+  </si>
+  <si>
+    <t>gleichen</t>
   </si>
   <si>
     <t>starren</t>
   </si>
   <si>
-    <t>dringen</t>
-  </si>
-  <si>
-    <t>ächzen</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>kosten</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>stören</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>brauchen</t>
-  </si>
-  <si>
-    <t>bremsen</t>
-  </si>
-  <si>
-    <t>treten</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
-    <t>house/house007.jpg</t>
+    <t>house/house018.jpg</t>
+  </si>
+  <si>
+    <t>house/house016.jpg</t>
+  </si>
+  <si>
+    <t>face/face008.jpg</t>
+  </si>
+  <si>
+    <t>face/face027.jpg</t>
+  </si>
+  <si>
+    <t>house/house027.jpg</t>
+  </si>
+  <si>
+    <t>house/house015.jpg</t>
+  </si>
+  <si>
+    <t>house/house023.jpg</t>
+  </si>
+  <si>
+    <t>house/house029.jpg</t>
+  </si>
+  <si>
+    <t>face/face017.jpg</t>
+  </si>
+  <si>
+    <t>face/face023.jpg</t>
+  </si>
+  <si>
+    <t>house/house024.jpg</t>
+  </si>
+  <si>
+    <t>face/face009.jpg</t>
+  </si>
+  <si>
+    <t>face/face024.jpg</t>
+  </si>
+  <si>
+    <t>face/face022.jpg</t>
+  </si>
+  <si>
+    <t>face/face018.jpg</t>
+  </si>
+  <si>
+    <t>house/house011.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
+  </si>
+  <si>
+    <t>face/face029.jpg</t>
+  </si>
+  <si>
+    <t>house/house022.jpg</t>
+  </si>
+  <si>
+    <t>face/face030.jpg</t>
+  </si>
+  <si>
+    <t>house/house014.jpg</t>
+  </si>
+  <si>
+    <t>house/house019.jpg</t>
+  </si>
+  <si>
+    <t>house/house001.jpg</t>
+  </si>
+  <si>
+    <t>face/face004.jpg</t>
+  </si>
+  <si>
+    <t>face/face001.jpg</t>
+  </si>
+  <si>
+    <t>house/house030.jpg</t>
+  </si>
+  <si>
+    <t>face/face005.jpg</t>
   </si>
   <si>
     <t>face/face003.jpg</t>
   </si>
   <si>
-    <t>face/face013.jpg</t>
-  </si>
-  <si>
-    <t>house/house028.jpg</t>
+    <t>house/house026.jpg</t>
+  </si>
+  <si>
+    <t>house/house020.jpg</t>
+  </si>
+  <si>
+    <t>house/house002.jpg</t>
   </si>
   <si>
     <t>face/face010.jpg</t>
-  </si>
-  <si>
-    <t>house/house021.jpg</t>
-  </si>
-  <si>
-    <t>face/face021.jpg</t>
-  </si>
-  <si>
-    <t>face/face005.jpg</t>
-  </si>
-  <si>
-    <t>house/house010.jpg</t>
-  </si>
-  <si>
-    <t>house/house031.jpg</t>
-  </si>
-  <si>
-    <t>house/house025.jpg</t>
-  </si>
-  <si>
-    <t>house/house020.jpg</t>
-  </si>
-  <si>
-    <t>house/house001.jpg</t>
-  </si>
-  <si>
-    <t>house/house000.jpg</t>
-  </si>
-  <si>
-    <t>face/face026.jpg</t>
-  </si>
-  <si>
-    <t>face/face001.jpg</t>
-  </si>
-  <si>
-    <t>face/face014.jpg</t>
-  </si>
-  <si>
-    <t>house/house016.jpg</t>
-  </si>
-  <si>
-    <t>face/face024.jpg</t>
-  </si>
-  <si>
-    <t>face/face011.jpg</t>
-  </si>
-  <si>
-    <t>face/face008.jpg</t>
-  </si>
-  <si>
-    <t>house/house026.jpg</t>
-  </si>
-  <si>
-    <t>face/face018.jpg</t>
-  </si>
-  <si>
-    <t>house/house003.jpg</t>
-  </si>
-  <si>
-    <t>house/house004.jpg</t>
-  </si>
-  <si>
-    <t>face/face007.jpg</t>
-  </si>
-  <si>
-    <t>house/house008.jpg</t>
-  </si>
-  <si>
-    <t>face/face028.jpg</t>
-  </si>
-  <si>
-    <t>house/house011.jpg</t>
-  </si>
-  <si>
-    <t>face/face004.jpg</t>
-  </si>
-  <si>
-    <t>face/face031.jpg</t>
-  </si>
-  <si>
-    <t>house/house019.jpg</t>
   </si>
   <si>
     <t>house</t>
@@ -676,7 +676,7 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -709,7 +709,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -731,7 +731,7 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -764,7 +764,7 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -775,7 +775,7 @@
         <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -797,7 +797,7 @@
         <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -808,7 +808,7 @@
         <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -841,7 +841,7 @@
         <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -863,7 +863,7 @@
         <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -874,7 +874,7 @@
         <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -907,7 +907,7 @@
         <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -940,7 +940,7 @@
         <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -962,7 +962,7 @@
         <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -995,7 +995,7 @@
         <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1028,7 +1028,7 @@
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1039,7 +1039,7 @@
         <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1061,7 +1061,7 @@
         <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1072,7 +1072,7 @@
         <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1094,7 +1094,7 @@
         <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1138,7 +1138,7 @@
         <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1160,7 +1160,7 @@
         <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1171,7 +1171,7 @@
         <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/30_cues.xlsx
+++ b/sequences/30_cues.xlsx
@@ -28,142 +28,142 @@
     <t>wenden</t>
   </si>
   <si>
-    <t>rühren</t>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>kleben</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>opfern</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>schalten</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>klagen</t>
   </si>
   <si>
     <t>leugnen</t>
   </si>
   <si>
-    <t>rufen</t>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>sparen</t>
+  </si>
+  <si>
+    <t>biegen</t>
   </si>
   <si>
     <t>herrschen</t>
   </si>
   <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>treiben</t>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>leiten</t>
+  </si>
+  <si>
+    <t>orten</t>
   </si>
   <si>
     <t>grüßen</t>
   </si>
   <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
     <t>beißen</t>
   </si>
   <si>
-    <t>schalten</t>
-  </si>
-  <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>brauchen</t>
-  </si>
-  <si>
-    <t>klagen</t>
+    <t>weigern</t>
+  </si>
+  <si>
+    <t>nerven</t>
+  </si>
+  <si>
+    <t>stopfen</t>
+  </si>
+  <si>
+    <t>ächzen</t>
+  </si>
+  <si>
+    <t>wandern</t>
   </si>
   <si>
     <t>zögern</t>
   </si>
   <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>stürmen</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>tropfen</t>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>dauern</t>
   </si>
   <si>
     <t>reizen</t>
   </si>
   <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>orten</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
     <t>bellen</t>
   </si>
   <si>
-    <t>weigern</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>retten</t>
-  </si>
-  <si>
-    <t>ächzen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>kosten</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
     <t>stören</t>
   </si>
   <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>wagen</t>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>fordern</t>
   </si>
   <si>
     <t>bremsen</t>
   </si>
   <si>
-    <t>gleichen</t>
+    <t>runden</t>
   </si>
   <si>
     <t>starren</t>
@@ -172,106 +172,106 @@
     <t>none</t>
   </si>
   <si>
-    <t>house/house018.jpg</t>
-  </si>
-  <si>
-    <t>house/house016.jpg</t>
-  </si>
-  <si>
-    <t>face/face008.jpg</t>
-  </si>
-  <si>
-    <t>face/face027.jpg</t>
-  </si>
-  <si>
-    <t>house/house027.jpg</t>
+    <t>face/face030.jpg</t>
+  </si>
+  <si>
+    <t>face/face019.jpg</t>
+  </si>
+  <si>
+    <t>house/house003.jpg</t>
+  </si>
+  <si>
+    <t>house/house030.jpg</t>
+  </si>
+  <si>
+    <t>house/house011.jpg</t>
+  </si>
+  <si>
+    <t>house/house019.jpg</t>
+  </si>
+  <si>
+    <t>face/face004.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
   </si>
   <si>
     <t>house/house015.jpg</t>
   </si>
   <si>
-    <t>house/house023.jpg</t>
-  </si>
-  <si>
-    <t>house/house029.jpg</t>
-  </si>
-  <si>
-    <t>face/face017.jpg</t>
+    <t>face/face002.jpg</t>
+  </si>
+  <si>
+    <t>house/house020.jpg</t>
+  </si>
+  <si>
+    <t>house/house012.jpg</t>
+  </si>
+  <si>
+    <t>house/house026.jpg</t>
+  </si>
+  <si>
+    <t>face/face009.jpg</t>
+  </si>
+  <si>
+    <t>face/face024.jpg</t>
   </si>
   <si>
     <t>face/face023.jpg</t>
   </si>
   <si>
-    <t>house/house024.jpg</t>
-  </si>
-  <si>
-    <t>face/face009.jpg</t>
-  </si>
-  <si>
-    <t>face/face024.jpg</t>
+    <t>face/face028.jpg</t>
+  </si>
+  <si>
+    <t>face/face007.jpg</t>
+  </si>
+  <si>
+    <t>house/house006.jpg</t>
+  </si>
+  <si>
+    <t>house/house009.jpg</t>
+  </si>
+  <si>
+    <t>house/house025.jpg</t>
+  </si>
+  <si>
+    <t>house/house028.jpg</t>
+  </si>
+  <si>
+    <t>face/face026.jpg</t>
+  </si>
+  <si>
+    <t>house/house000.jpg</t>
+  </si>
+  <si>
+    <t>house/house008.jpg</t>
+  </si>
+  <si>
+    <t>face/face014.jpg</t>
+  </si>
+  <si>
+    <t>house/house021.jpg</t>
+  </si>
+  <si>
+    <t>face/face000.jpg</t>
+  </si>
+  <si>
+    <t>face/face015.jpg</t>
+  </si>
+  <si>
+    <t>house/house007.jpg</t>
   </si>
   <si>
     <t>face/face022.jpg</t>
   </si>
   <si>
-    <t>face/face018.jpg</t>
-  </si>
-  <si>
-    <t>house/house011.jpg</t>
-  </si>
-  <si>
-    <t>face/face020.jpg</t>
-  </si>
-  <si>
-    <t>face/face029.jpg</t>
-  </si>
-  <si>
-    <t>house/house022.jpg</t>
-  </si>
-  <si>
-    <t>face/face030.jpg</t>
-  </si>
-  <si>
-    <t>house/house014.jpg</t>
-  </si>
-  <si>
-    <t>house/house019.jpg</t>
-  </si>
-  <si>
-    <t>house/house001.jpg</t>
-  </si>
-  <si>
-    <t>face/face004.jpg</t>
-  </si>
-  <si>
-    <t>face/face001.jpg</t>
-  </si>
-  <si>
-    <t>house/house030.jpg</t>
-  </si>
-  <si>
-    <t>face/face005.jpg</t>
-  </si>
-  <si>
-    <t>face/face003.jpg</t>
-  </si>
-  <si>
-    <t>house/house026.jpg</t>
-  </si>
-  <si>
-    <t>house/house020.jpg</t>
-  </si>
-  <si>
-    <t>house/house002.jpg</t>
-  </si>
-  <si>
-    <t>face/face010.jpg</t>
+    <t>face/face031.jpg</t>
+  </si>
+  <si>
+    <t>face</t>
   </si>
   <si>
     <t>house</t>
-  </si>
-  <si>
-    <t>face</t>
   </si>
 </sst>
 </file>
@@ -731,7 +731,7 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -742,7 +742,7 @@
         <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -808,7 +808,7 @@
         <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -830,7 +830,7 @@
         <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -874,7 +874,7 @@
         <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -896,7 +896,7 @@
         <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -929,7 +929,7 @@
         <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -940,7 +940,7 @@
         <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -962,7 +962,7 @@
         <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -995,7 +995,7 @@
         <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1006,7 +1006,7 @@
         <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1105,7 +1105,7 @@
         <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1138,7 +1138,7 @@
         <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1171,7 +1171,7 @@
         <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
